--- a/assets/files/CV17.xlsx
+++ b/assets/files/CV17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1998 +625,1996 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>55.778894472361806</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>17.587939698492463</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>24.623115577889447</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>1.0050251256281406</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>1.0050251256281406</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>48.677248677248677</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>26.984126984126984</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>19.576719576719576</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>4.7619047619047619</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>52.319587628865982</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>22.164948453608247</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>22.164948453608247</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>2.8350515463917527</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>0.51546391752577314</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>40</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>30.612244897959183</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>17.551020408163264</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>11.836734693877551</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>245</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>41.32231404958678</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>37.190082644628099</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>10.743801652892563</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>9.9173553719008272</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0.82644628099173556</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>121</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>40.437158469945352</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>32.786885245901637</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>15.300546448087431</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>11.202185792349727</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>0.27322404371584702</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>30.9255079006772</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>11.738148984198645</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>50.564334085778782</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>6.3205417607223477</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>0.45146726862302483</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>443</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>44.897959183673471</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>12.244897959183673</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>40.408163265306122</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>2.4489795918367347</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
         <v>245</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>35.901162790697676</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>11.918604651162791</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>46.947674418604649</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>4.941860465116279</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>0.29069767441860467</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>688</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>51.898734177215189</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>25.316455696202532</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>22.784810126582279</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>50.719424460431654</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>15.827338129496402</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>31.294964028776977</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>2.1582733812949639</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>50.980392156862742</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>17.927170868347339</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>29.411764705882351</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>1.680672268907563</v>
       </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>40.571428571428569</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>8.5714285714285712</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>38.857142857142854</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>5.1428571428571432</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>6.8571428571428568</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>175</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>46</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>12</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>31</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>5</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>6</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>100</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>42.545454545454547</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>9.8181818181818183</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>36</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>5.0909090909090908</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>6.5454545454545459</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>22.051282051282051</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>7.6923076923076925</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>65.128205128205124</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>3.5897435897435899</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>1.5384615384615385</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>24.88262910798122</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>2.816901408450704</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>69.953051643192495</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>0.93896713615023475</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>23.529411764705884</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>5.1470588235294121</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>67.647058823529406</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>2.2058823529411766</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>1.4705882352941178</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>19.047619047619047</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>19.047619047619047</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>23.80952380952381</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>38.095238095238095</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>42</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>37.423312883435585</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>11.349693251533742</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>46.012269938650306</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>5.2147239263803682</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
         <v>326</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>35.326086956521742</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>12.228260869565217</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>43.478260869565219</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>8.9673913043478262</v>
       </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="4">
+      <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>38.617886178861788</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>12.195121951219512</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>43.902439024390247</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>2.845528455284553</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>2.4390243902439024</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>46.043165467625897</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>25.179856115107913</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>18.705035971223023</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>9.3525179856115113</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>0.71942446043165464</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>41.298701298701296</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>16.883116883116884</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>34.805194805194802</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>5.1948051948051948</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>1.8181818181818181</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>22.988505747126435</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>11.494252873563218</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>60.919540229885058</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>34.519572953736656</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>3.5587188612099645</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>55.160142348754448</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>2.8469750889679717</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>3.9145907473309607</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>31.793478260869566</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>5.4347826086956523</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>56.521739130434781</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>2.9891304347826089</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>3.2608695652173911</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>26</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
         <v>72</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>27.071823204419889</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>3.867403314917127</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>68.508287292817684</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>0.5524861878453039</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>26.509186351706038</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>1.837270341207349</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>70.341207349081358</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>1.3123359580052494</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>87.16814159292035</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>7.5221238938053094</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>3.9823008849557522</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>0.44247787610619471</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>0.88495575221238942</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>79.870129870129873</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>10.38961038961039</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>8.4415584415584419</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>0.64935064935064934</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>0.64935064935064934</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>84.21052631578948</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>8.6842105263157894</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>5.7894736842105265</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>0.52631578947368418</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>0.78947368421052633</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>42.982456140350877</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>12.719298245614034</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>32.017543859649123</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>6.1403508771929829</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>6.1403508771929829</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>228</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>39.449541284403672</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>3.669724770642202</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>56.88073394495413</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
         <v>109</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>41.839762611275965</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>9.792284866468842</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>40.059347181008903</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>4.1543026706231458</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>4.1543026706231458</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>31.967213114754099</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>11.475409836065573</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>52.459016393442624</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>4.0983606557377046</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>122</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>27.888446215139442</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>3.1872509960159361</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>66.135458167330682</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>1.593625498007968</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>1.1952191235059761</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>29.222520107238605</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>5.8981233243967832</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>61.662198391420908</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>2.4128686327077746</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>0.80428954423592491</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>43.75</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>41.666666666666664</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>2.0833333333333335</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>40.119760479041915</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>53.293413173652695</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>2.9940119760479043</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>3.5928143712574849</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <v>334</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>40.575916230366495</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>51.832460732984295</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>3.6649214659685865</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>3.6649214659685865</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>0.26178010471204188</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>65.333333333333329</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>1.3333333333333333</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>32.666666666666664</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>55.084745762711862</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>1.6949152542372881</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>42.796610169491522</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>0.42372881355932202</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>59.067357512953365</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>1.5544041450777202</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>38.860103626943008</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>0.51813471502590669</v>
       </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>33.85826771653543</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>8.6614173228346463</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>50.393700787401578</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>6.5616797900262469</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>0.52493438320209973</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>381</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>33.85826771653543</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>8.6614173228346463</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>50.393700787401578</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>6.5616797900262469</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>0.52493438320209973</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>48.717948717948715</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>17.948717948717949</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>12.820512820512821</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>17.948717948717949</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>36.842105263157897</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>36.842105263157897</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>5.8479532163742691</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>19.005847953216374</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>1.4619883040935673</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>342</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>38.057742782152232</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>34.908136482939632</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>6.5616797900262469</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>18.897637795275589</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>1.5748031496062993</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>25.287356321839081</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>0.57471264367816088</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>73.563218390804593</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>0.57471264367816088</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>43.715846994535518</v>
       </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
         <v>56.284153005464482</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>34.733893557422967</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>0.28011204481792717</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>64.705882352941174</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>0.28011204481792717</v>
       </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>21.212121212121211</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>27.272727272727273</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>33</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>24.390243902439025</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>46.883468834688344</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>7.0460704607046072</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>20.596205962059621</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.084010840108401</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>369</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>23.880597014925375</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>45.771144278606968</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>8.2089552238805972</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>21.144278606965173</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>0.99502487562189057</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>402</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>56.650246305418719</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>10.344827586206897</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>29.55665024630542</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>2.4630541871921183</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>0.98522167487684731</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>52.222222222222221</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>11.666666666666666</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>2.2222222222222223</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>54.569190600522191</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>10.966057441253264</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>31.331592689295039</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>2.3498694516971281</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>0.78328981723237601</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>50.867052023121389</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>9.8265895953757223</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>38.150289017341038</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>0.5780346820809249</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>0.5780346820809249</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>47.804878048780488</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>13.170731707317072</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>32.68292682926829</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>3.9024390243902438</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>2.4390243902439024</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>49.206349206349209</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>11.640211640211641</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>35.185185185185183</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>2.3809523809523809</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>1.5873015873015872</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>34.759358288770052</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>17.112299465240643</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>42.780748663101605</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>4.8128342245989302</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>0.53475935828877008</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>187</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>43.589743589743591</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>11.794871794871796</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>36.92307692307692</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>7.1794871794871797</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>0.51282051282051277</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>39.267015706806284</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>14.397905759162304</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>39.790575916230367</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>6.0209424083769632</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>0.52356020942408377</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>44.6875</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>3.75</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>50.625</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>0.625</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>0.3125</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>16.129032258064516</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>1.6129032258064515</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>80.645161290322577</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>1.6129032258064515</v>
       </c>
-      <c r="M24" s="1">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>40.052356020942412</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>3.4031413612565444</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>55.497382198952877</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>0.78534031413612571</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>0.26178010471204188</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>28.342245989304814</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>8.0213903743315509</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>59.893048128342244</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>2.1390374331550803</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>1.6042780748663101</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>187</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>39.583333333333336</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>8.8541666666666661</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>47.395833333333336</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>3.125</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>1.0416666666666667</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>34.03693931398417</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>8.4432717678100264</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>53.562005277044854</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>2.6385224274406331</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>1.3192612137203166</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>53.298611111111114</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>24.826388888888889</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>18.402777777777779</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>2.4305555555555554</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>1.0416666666666667</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>576</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>45.919881305637979</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>24.851632047477747</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>21.216617210682493</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>7.1958456973293767</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>0.81602373887240354</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1348</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>48.128898128898129</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>24.844074844074843</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>20.374220374220375</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>5.7692307692307692</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>0.88357588357588357</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1924</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>59.420289855072461</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>34.782608695652172</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>4.3478260869565215</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>1.4492753623188406</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>138</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>58.614232209737828</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>20.786516853932586</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>14.9812734082397</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>3.7453183520599249</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>1.8726591760299625</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>534</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>58.779761904761905</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>23.660714285714285</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>12.797619047619047</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>3.2738095238095237</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>1.4880952380952381</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>39.552238805970148</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>14.17910447761194</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>42.537313432835823</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>2.2388059701492535</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>1.4925373134328359</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>134</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>42.328042328042329</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>41.798941798941797</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>2.1164021164021163</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>2.6455026455026456</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>189</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>41.176470588235297</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>12.383900928792571</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>42.10526315789474</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>2.1671826625386998</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>2.1671826625386998</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>27.43362831858407</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>26.106194690265486</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>38.938053097345133</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>6.6371681415929205</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>0.88495575221238942</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>226</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>30.578512396694215</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>8.2644628099173545</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>57.851239669421489</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>2.4793388429752068</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>0.82644628099173556</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>121</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>28.530259365994237</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>19.884726224783861</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>45.533141210374637</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>5.1873198847262252</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>0.86455331412103742</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>347</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>40.645161290322584</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>12.903225806451612</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>44.516129032258064</v>
       </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
         <v>1.935483870967742</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>48.484848484848484</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>11.255411255411255</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>38.095238095238095</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>0.4329004329004329</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>1.7316017316017316</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>231</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>45.336787564766837</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>11.917098445595855</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>40.673575129533681</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>0.25906735751295334</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>1.8134715025906736</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>25.225225225225227</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>9.0090090090090094</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>64.86486486486487</v>
       </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
         <v>0.90090090090090091</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>43.382352941176471</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>19.117647058823529</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>29.779411764705884</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>2.2058823529411766</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>5.5147058823529411</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>38.120104438642301</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>16.187989556135769</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>39.947780678851174</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>1.566579634464752</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>4.1775456919060057</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>26.666666666666668</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>60</v>
       </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>35.933147632311979</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>4.4568245125348191</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>55.710306406685234</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>2.785515320334262</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>1.1142061281337048</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>359</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>35.561497326203209</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>4.8128342245989302</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>55.882352941176471</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>2.6737967914438503</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>1.0695187165775402</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>374</v>
       </c>
     </row>
